--- a/Data/xpath_hellotalk.xlsx
+++ b/Data/xpath_hellotalk.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11880" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="11880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="char" sheetId="2" r:id="rId2"/>
     <sheet name="me" sheetId="3" r:id="rId3"/>
     <sheet name="common" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>{"button_table":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[3]/android.widget.ImageView"}</t>
   </si>
@@ -169,7 +170,7 @@
     <t>{"btn_add_four_next_table_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.LinearLayout/android.widget.HorizontalScrollView/android.widget.LinearLayout/androidx.appcompat.app.ActionBar.Tab[2]/android.widget.ImageView"}</t>
   </si>
   <si>
-    <t>{"btn_add_five_next":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/androidx.viewpager.widget.ViewPager/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.FrameLayout/android.widget.LinearLayout"}</t>
+    <t>{"btn_add_five_next":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/androidx.viewpager.widget.ViewPager/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.RelativeLayout"}</t>
   </si>
   <si>
     <t>{"btn_add_six_next":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.LinearLayout[2]/androidx.recyclerview.widget.RecyclerView/android.widget.FrameLayout[2]/android.widget.ImageView"}</t>
@@ -182,6 +183,75 @@
   </si>
   <si>
     <t>{"xpath_tab_me":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[5]/android.widget.ImageView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_position_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/androidx.appcompat.widget.LinearLayoutCompat/android.widget.FrameLayout/android.widget.ListView/android.widget.TextView[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_position_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/androidx.appcompat.widget.LinearLayoutCompat/android.widget.FrameLayout/android.widget.ListView/android.widget.TextView[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_qr_code_one":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[1]/android.widget.LinearLayout/android.widget.RelativeLayout/android.widget.TextView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_qr_code_two":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.LinearLayout/android.widget.RelativeLayout/android.widget.TextView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_qr_code_three":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[3]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_Interest_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.LinearLayout[5]/android.widget.LinearLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_Interest_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/androidx.recyclerview.widget.RecyclerView/android.widget.LinearLayout[1]/android.widget.TextView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_Interest_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/androidx.recyclerview.widget.RecyclerView/android.widget.LinearLayout[3]/android.widget.CheckBox"}</t>
+  </si>
+  <si>
+    <t>{"xpath_Interest_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.LinearLayout[5]/android.widget.LinearLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_Interest_five":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/androidx.recyclerview.widget.RecyclerView/android.widget.LinearLayout[2]/android.widget.CheckBox"}</t>
+  </si>
+  <si>
+    <t>{"xpath_Interest_six":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/androidx.recyclerview.widget.RecyclerView/android.widget.LinearLayout[3]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_travel_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.LinearLayout[5]/android.widget.LinearLayout[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_travel_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_travel_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[3]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_travel_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.LinearLayout[5]/android.widget.LinearLayout[2]/android.view.ViewGroup"}</t>
+  </si>
+  <si>
+    <t>{"xpath_travel_five":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.ImageView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_follow_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.view.ViewGroup/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_follow_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_follow_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[3]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_follow_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_fans_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_fans_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[2]/android.widget.ImageView[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_fans_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[2]/android.widget.ImageView[2]"}</t>
   </si>
   <si>
     <t>{"common_tab":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.viewpager.widget.ViewPager/android.widget.RelativeLayout/android.widget.LinearLayout/android.widget.RelativeLayout/android.widget.HorizontalScrollView/android.view.ViewGroup/android.widget.LinearLayout["}</t>
@@ -240,6 +310,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -247,7 +371,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,7 +423,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,106 +447,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,181 +468,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +653,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,32 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,11 +739,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,88 +758,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,55 +851,55 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A2:A49"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1467,13 +1537,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A2:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="68.4464285714286" customWidth="1"/>
   </cols>
@@ -1481,6 +1551,121 @@
     <row r="2" ht="106" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="88" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="88" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" ht="71" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="71" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" ht="88" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" ht="88" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" ht="88" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="88" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="88" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" ht="88" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="88" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="88" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" ht="88" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" ht="106" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="106" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="88" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="53" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" ht="53" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" ht="53" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" ht="88" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="106" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="106" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1679,7 @@
   <sheetPr/>
   <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1505,47 +1690,47 @@
   <sheetData>
     <row r="2" ht="95" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="88" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="71" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="71" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="71" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="71" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="71" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="71" spans="1:1">
@@ -1555,17 +1740,17 @@
     </row>
     <row r="12" ht="71" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" ht="71" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="71" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="53" spans="1:1">
@@ -1597,4 +1782,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Data/xpath_hellotalk.xlsx
+++ b/Data/xpath_hellotalk.xlsx
@@ -13,12 +13,12 @@
     <sheet name="common" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>{"button_table":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[3]/android.widget.ImageView"}</t>
   </si>
@@ -38,6 +38,9 @@
     <t>{"widgetTextView_tip":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.TextView"}</t>
   </si>
   <si>
+    <t>{"add_one_per":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.viewpager.widget.ViewPager/android.widget.RelativeLayout/android.view.ViewGroup/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout["}</t>
+  </si>
+  <si>
     <t>{"textView_input":"//android.widget.LinearLayout/android.widget.RelativeLayout/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.FrameLayout"}</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>{"char_search":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout"}</t>
   </si>
   <si>
+    <t>{"btn_group_char_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.RelativeLayout/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.HorizontalScrollView/android.widget.LinearLayout/android.widget.LinearLayout[1]/android.widget.TextView"}</t>
+  </si>
+  <si>
     <t>{"xpath_tab_me":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout[5]/android.widget.ImageView"}</t>
   </si>
   <si>
@@ -252,6 +258,114 @@
   </si>
   <si>
     <t>{"xpath_fans_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[2]/android.widget.ImageView[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_vip_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout[1]/android.widget.LinearLayout[2]/android.widget.LinearLayout[1]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_vip_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout[1]/android.widget.LinearLayout[2]/android.widget.LinearLayout[2]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_vip_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout[2]/android.widget.LinearLayout[1]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_vip_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout[2]/android.widget.LinearLayout[2]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_vip_five":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.ScrollView/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout[2]/android.widget.LinearLayout[3]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[1]/android.widget.RelativeLayout/android.widget.ImageView[4]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/androidx.appcompat.widget.LinearLayoutCompat/android.widget.FrameLayout/android.widget.ListView/android.widget.TextView[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[1]/android.widget.RelativeLayout/android.widget.ImageView[4]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/androidx.appcompat.widget.LinearLayoutCompat/android.widget.FrameLayout/android.widget.ListView/android.widget.TextView[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_five":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[1]/android.widget.RelativeLayout/android.widget.ImageView[4]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_six":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/androidx.appcompat.widget.LinearLayoutCompat/android.widget.FrameLayout/android.widget.ListView/android.widget.TextView[3]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_seven":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[1]/android.widget.RelativeLayout/android.widget.ImageView[4]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_feed_eight":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/androidx.appcompat.widget.LinearLayoutCompat/android.widget.FrameLayout/android.widget.ListView/android.widget.TextView[3]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_translate_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.FrameLayout/androidx.recyclerview.widget.RecyclerView/android.widget.LinearLayout[2]/androidx.recyclerview.widget.RecyclerView/android.widget.LinearLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_translate_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.RelativeLayout/androidx.recyclerview.widget.RecyclerView/android.widget.RelativeLayout[1]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_translate_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ScrollView/android.widget.RelativeLayout/android.view.ViewGroup/android.widget.EditText"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[1]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[1]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_three":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[3]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_five":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_six":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[1]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.Switch"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_one":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.Switch"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_two":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[3]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.Switch"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_three":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[5]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.Switch"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_four":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[7]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.Switch"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_five":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[8]/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.Switch"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_six":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.widget.FrameLayout[2]/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.FrameLayout[4]/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_setting_more_seven":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout["}</t>
+  </si>
+  <si>
+    <t>{"xpath_recommend":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/androidx.viewpager.widget.ViewPager/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.FrameLayout/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_note_one":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[1]/android.widget.LinearLayout/android.widget.RelativeLayout[1]/android.widget.ImageView[2]"}</t>
+  </si>
+  <si>
+    <t>{"xpath_note_two":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.LinearLayout/androidx.viewpager.widget.ViewPager/android.widget.FrameLayout/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout"}</t>
+  </si>
+  <si>
+    <t>{"xpath_note_three":"/hierarchy/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.LinearLayout/android.widget.LinearLayout[1]/android.widget.ImageView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_note_four":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[1]/android.widget.TextView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_note_five":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[2]/android.widget.TextView"}</t>
+  </si>
+  <si>
+    <t>{"xpath_note_six":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.LinearLayout[2]/android.widget.ListView/android.widget.LinearLayout[3]/android.widget.TextView"}</t>
   </si>
   <si>
     <t>{"common_tab":"/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/androidx.viewpager.widget.ViewPager/android.widget.RelativeLayout/android.widget.LinearLayout/android.widget.RelativeLayout/android.widget.HorizontalScrollView/android.view.ViewGroup/android.widget.LinearLayout["}</t>
@@ -296,9 +410,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -310,7 +424,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,32 +467,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,20 +477,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +492,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,15 +544,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,37 +566,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,67 +576,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,115 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,26 +767,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,22 +783,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,17 +842,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,148 +872,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,13 +1343,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="69.4910714285714" style="1" customWidth="1"/>
   </cols>
@@ -1266,6 +1380,11 @@
     <row r="6" ht="36" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="106" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1277,10 +1396,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:A49"/>
+  <dimension ref="A2:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1290,242 +1409,247 @@
   <sheetData>
     <row r="2" ht="124" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="124" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="124" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="124" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="124" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="53" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="53" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="53" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="53" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="71" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="53" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="53" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="53" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="53" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="88" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="88" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="88" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="53" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="53" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="53" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="71" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="71" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="71" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="71" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="88" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="88" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="71" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="106" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="106" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="106" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="106" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="106" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="106" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="106" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="106" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="106" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="88" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="71" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="71" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="71" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="71" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="88" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="88" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" ht="88" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="71" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="88" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="53" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" ht="88" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1537,10 +1661,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:A25"/>
+  <dimension ref="A2:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1550,122 +1674,312 @@
   <sheetData>
     <row r="2" ht="106" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="88" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="88" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="71" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="88" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="88" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="88" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="88" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="88" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="88" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="88" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="88" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="88" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="106" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="106" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="88" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" ht="53" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="53" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="53" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="88" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="106" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="106" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="106" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" ht="124" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="124" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" ht="124" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" ht="124" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" ht="124" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" ht="106" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" ht="88" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" ht="106" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" ht="88" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" ht="106" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" ht="88" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" ht="106" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" ht="88" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" ht="106" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" ht="88" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" ht="88" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" ht="88" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" ht="88" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" ht="88" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" ht="88" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" ht="88" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" ht="88" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" ht="88" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" ht="88" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" ht="88" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" ht="88" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" ht="88" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" ht="88" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" ht="71" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" ht="124" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" ht="106" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" ht="124" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" ht="53" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" ht="88" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" ht="88" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" ht="88" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" ht="124" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1690,92 +2004,92 @@
   <sheetData>
     <row r="2" ht="95" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" ht="71" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="88" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="71" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="71" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="71" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" ht="71" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" ht="71" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" ht="71" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="71" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="71" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" ht="71" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" ht="53" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="53" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="71" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="71" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="71" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
